--- a/data/trans_dic/P15_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares no convivientes con COVID-19</t>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>27,93%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 19,19</t>
+          <t>0,0; 17,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 17,64</t>
+          <t>0,0; 16,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 40,88</t>
+          <t>9,98; 40,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,59; 38,77</t>
+          <t>10,71; 43,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 20,88</t>
+          <t>2,5; 22,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 17,82</t>
+          <t>2,42; 21,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,51; 28,6</t>
+          <t>8,74; 31,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,06; 51,55</t>
+          <t>19,36; 44,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 15,37</t>
+          <t>2,76; 16,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 14,54</t>
+          <t>2,81; 16,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,71; 30,59</t>
+          <t>13,3; 31,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,73; 38,83</t>
+          <t>18,04; 39,1</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>28,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 14,34</t>
+          <t>3,09; 19,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,96</t>
+          <t>0,0; 11,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,44; 28,66</t>
+          <t>7,2; 33,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,97; 40,53</t>
+          <t>13,91; 48,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 15,44</t>
+          <t>1,59; 14,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,39</t>
+          <t>0,0; 10,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 27,61</t>
+          <t>7,13; 25,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,64; 39,54</t>
+          <t>16,73; 39,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,41</t>
+          <t>2,9; 13,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,13</t>
+          <t>0,76; 6,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,85; 25,45</t>
+          <t>10,62; 25,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,81; 36,95</t>
+          <t>18,35; 38,58</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>33,56%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 11,47</t>
+          <t>1,43; 13,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 10,04</t>
+          <t>0,0; 10,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 20,19</t>
+          <t>11,28; 32,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,89; 35,82</t>
+          <t>21,04; 45,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 21,93</t>
+          <t>9,02; 23,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,3; 20,17</t>
+          <t>8,34; 23,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 31,49</t>
+          <t>15,87; 33,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,84; 42,61</t>
+          <t>25,27; 44,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 15,31</t>
+          <t>7,23; 17,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 13,3</t>
+          <t>6,02; 15,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,52; 24,21</t>
+          <t>17,03; 29,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,01; 36,51</t>
+          <t>26,62; 41,3</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>34,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>34,12%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 18,94</t>
+          <t>6,64; 22,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 10,1</t>
+          <t>2,24; 12,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 30,94</t>
+          <t>16,37; 34,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,57; 41,76</t>
+          <t>23,8; 44,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 18,1</t>
+          <t>6,96; 20,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,3; 11,92</t>
+          <t>3,58; 13,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,9; 26,07</t>
+          <t>10,87; 25,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,43; 39,85</t>
+          <t>26,36; 44,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 15,95</t>
+          <t>8,24; 18,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 9,8</t>
+          <t>3,95; 11,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 25,79</t>
+          <t>15,22; 25,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,14; 38,26</t>
+          <t>27,83; 42,0</t>
         </is>
       </c>
     </row>
@@ -1216,52 +1217,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>38,88%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1271,7 +1272,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>35,68%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 12,91</t>
+          <t>1,61; 14,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 16,0</t>
+          <t>3,84; 17,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,41; 26,95</t>
+          <t>12,36; 32,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,59; 43,58</t>
+          <t>22,65; 45,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 15,19</t>
+          <t>3,8; 20,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,75; 14,79</t>
+          <t>1,81; 13,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,01; 32,72</t>
+          <t>11,05; 33,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,0; 46,4</t>
+          <t>27,45; 52,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,45</t>
+          <t>3,95; 13,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 13,56</t>
+          <t>3,4; 13,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,89; 26,89</t>
+          <t>13,83; 29,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,73; 41,47</t>
+          <t>26,49; 45,03</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>25,91%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 15,81</t>
+          <t>0,0; 17,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 17,84</t>
+          <t>0,0; 12,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,57; 27,43</t>
+          <t>7,27; 32,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,91; 38,4</t>
+          <t>19,84; 48,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 13,21</t>
+          <t>0,0; 12,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 14,85</t>
+          <t>0,0; 9,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,56; 20,45</t>
+          <t>4,11; 22,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,28; 26,48</t>
+          <t>9,64; 34,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 11,94</t>
+          <t>1,13; 11,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,62; 12,98</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,9; 21,39</t>
+          <t>6,45; 22,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,94; 28,88</t>
+          <t>16,99; 36,0</t>
         </is>
       </c>
     </row>
@@ -1496,52 +1497,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1551,7 +1552,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>31,26%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,7</t>
+          <t>4,73; 10,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,3</t>
+          <t>3,03; 7,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,72; 23,68</t>
+          <t>16,96; 26,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,68; 33,18</t>
+          <t>25,65; 37,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,71</t>
+          <t>7,33; 13,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,42</t>
+          <t>5,47; 11,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,01; 22,26</t>
+          <t>14,13; 21,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,73; 34,79</t>
+          <t>27,04; 36,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,12</t>
+          <t>7,08; 11,41</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,43</t>
+          <t>4,8; 8,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,22; 22,03</t>
+          <t>16,98; 22,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>26,78; 32,63</t>
+          <t>28,12; 35,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2638</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6799</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24601</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31619</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11607</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12653</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21544</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38220</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14245</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19452</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>46144</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>69839</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14741</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17718</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10547; 43085</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13661; 55891</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2935; 26322</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3242; 29037</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10493; 37914</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23725; 54883</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5619; 33659</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6780; 39314</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30039; 71976</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45108; 97793</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12575</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5521</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27248</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46126</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6713</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3023</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18677</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>33938</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19288</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8544</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45925</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>80064</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4232; 26521</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19322</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10325; 48130</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21463; 74092</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2117; 18764</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16839</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9038; 32173</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>21129; 50250</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7823; 37556</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2522; 22715</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28687; 67603</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>51475; 108260</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4967</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28773</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>44502</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33660</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39773</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50016</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>68962</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40572</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44740</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>78789</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>113464</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1993; 19074</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17782</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15150; 44190</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28965; 62323</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19430; 50213</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22020; 61206</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33237; 69367</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>50648; 89396</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25678; 60728</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25647; 66762</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>58551; 102223</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>90003; 139652</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21007</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10944</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39410</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>52450</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>23868</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16322</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>31180</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>59709</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44875</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>27265</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>70590</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>112159</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10847; 36240</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4184; 22947</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26391; 55312</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>37176; 69351</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13308; 38990</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7812; 30036</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20203; 47667</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>45455; 76199</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>29238; 64362</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>16006; 46223</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>52845; 90114</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>91461; 138050</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8791</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13367</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27914</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>40993</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9930</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6724</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19050</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36028</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>18721</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20091</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>46964</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>77022</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2232; 20071</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6052; 28000</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16319; 42750</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27904; 56266</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3936; 21408</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2104; 16204</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10363; 31376</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>25443; 48617</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>9570; 33121</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>9312; 37207</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>31240; 65948</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>57176; 97201</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2704</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14527</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>29796</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2636</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10969</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22219</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9055</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5341</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>25496</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>52015</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15945</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13748</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6351; 27948</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17883; 44116</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13233</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13665</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4325; 23309</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10667; 37676</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2236; 21765</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16384</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12416; 42544</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>34108; 72275</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>56685</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>44301</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>162473</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>245486</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>90070</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>81131</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>151436</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>259077</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>146755</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>125433</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>313908</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>504564</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>35758; 82549</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>26988; 69278</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>129578; 201945</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>202370; 294718</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>63662; 115181</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>56675; 115099</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>118851; 183387</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>223111; 299946</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>114861; 185198</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>92573; 166087</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>272593; 364929</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>453898; 566420</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>